--- a/biology/Médecine/Kératose/Kératose.xlsx
+++ b/biology/Médecine/Kératose/Kératose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>K%C3%A9ratose</t>
+          <t>Kératose</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La kératose, ou kératodermie, est l'hypertrophie des couches cornées de l'épiderme.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>K%C3%A9ratose</t>
+          <t>Kératose</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Formes de kératose</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>On trouve dans la littérature médicale : la kératose pilaire atrophiante de Brocq, la kératose séborrhéique et la para-kératose qui sont des formes de kératose qui apparaissent à des âges différents avec, chacune, des topographies spécifiques.
 C'est une pathologie bénigne (voir ichtyose), mais elle doit se différencier :
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>K%C3%A9ratose</t>
+          <t>Kératose</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Histologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L'histologie permet de distinguer :
 l'orthokératose : la couche cornée est anormalement épaisse mais elle est constituée de cellules cornées d'aspect normal (anomalie quantitative mais non qualitative) ;
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>K%C3%A9ratose</t>
+          <t>Kératose</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Modalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Importance variable : modérée à considérable (hyperkératose)
 Extension variable
